--- a/medicine/Enfance/Einar_Már_Guðmundsson/Einar_Már_Guðmundsson.xlsx
+++ b/medicine/Enfance/Einar_Már_Guðmundsson/Einar_Már_Guðmundsson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Einar_M%C3%A1r_Gu%C3%B0mundsson</t>
+          <t>Einar_Már_Guðmundsson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Einar Már Guðmundsson, né le 18 septembre 1954 à Reykjavik, est un écrivain et scénariste islandais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Einar_M%C3%A1r_Gu%C3%B0mundsson</t>
+          <t>Einar_Már_Guðmundsson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Reykjavik, il y passe son enfance. En 1979, il obtient un diplôme en littérature comparée de l'université d'Islande. L'année suivante, il publie coup sur coup deux recueils de poésie, puis aborde le roman à partir de 1982.
 Ayant décroché un poste à l'université de Copenhague pour enseigner la littérature comparée, il vit un temps au Danemark.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Einar_M%C3%A1r_Gu%C3%B0mundsson</t>
+          <t>Einar_Már_Guðmundsson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,17 +562,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésie
-1980 : Sendisveinninn er einmana
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1980 : Sendisveinninn er einmana
 1980 : Er nokkur í Kórónafötum hér inni?
 1981 : Róbinson Krúsó snýr aftur
 1991 : Klettur í hafi
 1995 : Í augu óreiðunnar: ljóð eða eitthvað í þá áttina
 1995 : Ljóð 1980-1981
 2002 : Ljóð 1980-1995
-2006 : Ég stytti mér leið framhjá dauðanum
-Romans
-1982 : Riddarar hringstigans Les Chevaliers de l’escalier rond, traduit par Éric Boury, Larbey, Gaïa Éditions, 2007, 269 p.  (ISBN 978-2-84720-097-3)
+2006 : Ég stytti mér leið framhjá dauðanum</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Einar_Már_Guðmundsson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Einar_M%C3%A1r_Gu%C3%B0mundsson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1982 : Riddarar hringstigans Les Chevaliers de l’escalier rond, traduit par Éric Boury, Larbey, Gaïa Éditions, 2007, 269 p.  (ISBN 978-2-84720-097-3)
 1983 : Vængjasláttur í þakrennum
 1986 : Eftirmáli regndropanna Le Testament des gouttes de pluie, traduit par Éric Boury, Larbey, Gaïa Éditions, 2008, 248 p.  (ISBN 978-2-84720-130-7) ; réédition, Montfort-en-Chalosse, Gaïa Éditions, coll. « Kayak », 2019, 256 p.  (ISBN 978-2-84720-901-3)
 1990 : Rauðir dagar
@@ -570,52 +623,227 @@
 2007 : Rimlar hugans
 2012 : Íslenskir kóngar Les Rois d’Islande, traduit par Éric Boury, Paris, Éditions Zulma, 2018, 336 p.  (ISBN 978-2-84304-812-8) ; réédition, Paris, Édition Zulma, coll. « Z/A », 2019, 288 p.  (ISBN 978-2-84304-872-2)
 2015 : Hundadagar
-2017 : Passamyndir Un été norvégien, traduit par Éric Boury, Paris, Éditions Zulma, 2020, 336 p.  (ISBN 978-2-84304-956-9)
-Recueils de nouvelles
-1988 : Leitin að dýragarðinum
-2001 : Kannski er pósturinn svangur
-Ouvrages de littérature d'enfance et de jeunesse
-1992 : Fólkið í steininum
-1993 : Hundakexið
-Essais
-2009 : Hvíta bókin
+2017 : Passamyndir Un été norvégien, traduit par Éric Boury, Paris, Éditions Zulma, 2020, 336 p.  (ISBN 978-2-84304-956-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Einar_Már_Guðmundsson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Einar_M%C3%A1r_Gu%C3%B0mundsson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1988 : Leitin að dýragarðinum
+2001 : Kannski er pósturinn svangur</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Einar_Már_Guðmundsson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Einar_M%C3%A1r_Gu%C3%B0mundsson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1992 : Fólkið í steininum
+1993 : Hundakexið</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Einar_Már_Guðmundsson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Einar_M%C3%A1r_Gu%C3%B0mundsson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2009 : Hvíta bókin
 2011 : Bankastræti núll</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Einar_M%C3%A1r_Gu%C3%B0mundsson</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Einar_M%C3%A1r_Gu%C3%B0mundsson</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Einar_Már_Guðmundsson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Einar_M%C3%A1r_Gu%C3%B0mundsson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Scénarios originaux
-1991 : Les Enfants de la nature (Börn náttúrunnar) de Friðrik Þór Friðriksson
-1994 : Movie Days (Bíódagar) de Friðrik Þór Friðriksson
-Scénario adapté
-2000 : Les Anges de l'univers (Englar alheimsins) de Friðrik Þór Friðriksson, adaptation par Guðmundsson de son propre roman éponyme
-Comme réalisateur et scénariste
-2009 : How to Win A Lost Game, court métrage documentaire réalisé par Einar Guðmundsson</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Scénarios originaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1991 : Les Enfants de la nature (Börn náttúrunnar) de Friðrik Þór Friðriksson
+1994 : Movie Days (Bíódagar) de Friðrik Þór Friðriksson</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Einar_Már_Guðmundsson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Einar_M%C3%A1r_Gu%C3%B0mundsson</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Scénario adapté</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2000 : Les Anges de l'univers (Englar alheimsins) de Friðrik Þór Friðriksson, adaptation par Guðmundsson de son propre roman éponyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Einar_Már_Guðmundsson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Einar_M%C3%A1r_Gu%C3%B0mundsson</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Comme réalisateur et scénariste</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2009 : How to Win A Lost Game, court métrage documentaire réalisé par Einar Guðmundsson</t>
         </is>
       </c>
     </row>
